--- a/results/mp/logistic/corona/confidence/42/topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/topk-0.15/avg_0.004_scores.xlsx
@@ -61,76 +61,76 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>share</t>
@@ -505,7 +505,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7123287671232876</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.455026455026455</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +687,13 @@
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1879194630872483</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8928571428571429</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1222222222222222</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -781,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8328981723237598</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L7">
-        <v>319</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>319</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -813,13 +813,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -839,13 +839,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7948717948717948</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -865,13 +865,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -891,13 +891,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -917,13 +917,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -943,13 +943,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -969,13 +969,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7746478873239436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -995,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7578125</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1021,13 +1021,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7547169811320755</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1047,13 +1047,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.74375</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1073,13 +1073,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1099,13 +1099,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1125,13 +1125,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1151,13 +1151,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.65</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1177,13 +1177,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6235294117647059</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L22">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M22">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1203,13 +1203,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5851063829787234</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1229,13 +1229,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.58</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1255,13 +1255,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5774058577405857</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L25">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="M25">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1281,13 +1281,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5525423728813559</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L26">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>132</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1307,13 +1307,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5384615384615384</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1333,13 +1333,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5285714285714286</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1359,13 +1359,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4382022471910113</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
